--- a/biology/Zoologie/Corasoides_mouldsi/Corasoides_mouldsi.xlsx
+++ b/biology/Zoologie/Corasoides_mouldsi/Corasoides_mouldsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides mouldsi est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides mouldsi est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre sur le plateau Windsor et dans la vallée Roaring Meg[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre sur le plateau Windsor et dans la vallée Roaring Meg.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,9 mm de long sur 4,2 mm et l'abdomen 4,7 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 7,3 mm de long sur 4,6 mm et l'abdomen 10,6 mm de long sur 6,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,9 mm de long sur 4,2 mm et l'abdomen 4,7 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 7,3 mm de long sur 4,6 mm et l'abdomen 10,6 mm de long sur 6,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Max Moulds[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Max Moulds.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
